--- a/public/pemeriksaanlab.xlsx
+++ b/public/pemeriksaanlab.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20403"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20404"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marwa\Documents\ARSITEKTUR\PROJEK\KLINIK DR LUTHFI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\lmc\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55215E8C-8796-4A19-8B92-44265AA0B484}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537A6030-AB38-4CB1-82FE-D556CE02E64A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{3A50C34C-4435-4D11-B127-641CDA6181D6}"/>
   </bookViews>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="106">
   <si>
-    <t>code</t>
-  </si>
-  <si>
     <t>nama</t>
   </si>
   <si>
@@ -343,6 +340,9 @@
   </si>
   <si>
     <t>kelompok</t>
+  </si>
+  <si>
+    <t>kode</t>
   </si>
 </sst>
 </file>
@@ -707,7 +707,7 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -720,39 +720,39 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
@@ -766,16 +766,16 @@
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -789,16 +789,16 @@
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -812,16 +812,16 @@
     </row>
     <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -835,16 +835,16 @@
     </row>
     <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -858,16 +858,16 @@
     </row>
     <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -881,16 +881,16 @@
     </row>
     <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -904,16 +904,16 @@
     </row>
     <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
@@ -927,16 +927,16 @@
     </row>
     <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -950,16 +950,16 @@
     </row>
     <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
@@ -973,16 +973,16 @@
     </row>
     <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -996,16 +996,16 @@
     </row>
     <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
@@ -1019,16 +1019,16 @@
     </row>
     <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
@@ -1042,16 +1042,16 @@
     </row>
     <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -1065,16 +1065,16 @@
     </row>
     <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
@@ -1088,16 +1088,16 @@
     </row>
     <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E17" s="1">
         <v>0</v>
@@ -1111,16 +1111,16 @@
     </row>
     <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E18" s="1">
         <v>0</v>
@@ -1134,16 +1134,16 @@
     </row>
     <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E19" s="1">
         <v>0</v>
@@ -1157,16 +1157,16 @@
     </row>
     <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E20" s="1">
         <v>0</v>
@@ -1180,16 +1180,16 @@
     </row>
     <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E21" s="1">
         <v>0</v>
@@ -1203,16 +1203,16 @@
     </row>
     <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E22" s="1">
         <v>0</v>
@@ -1226,16 +1226,16 @@
     </row>
     <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E23" s="1">
         <v>0</v>
@@ -1249,16 +1249,16 @@
     </row>
     <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E24" s="1">
         <v>0</v>
@@ -1272,16 +1272,16 @@
     </row>
     <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E25" s="1">
         <v>0</v>
@@ -1295,16 +1295,16 @@
     </row>
     <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E26" s="1">
         <v>0</v>
@@ -1318,16 +1318,16 @@
     </row>
     <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E27" s="1">
         <v>0</v>
@@ -1341,16 +1341,16 @@
     </row>
     <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E28" s="1">
         <v>0</v>
@@ -1364,16 +1364,16 @@
     </row>
     <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E29" s="1">
         <v>0</v>
@@ -1387,16 +1387,16 @@
     </row>
     <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E30" s="1">
         <v>0</v>
@@ -1410,16 +1410,16 @@
     </row>
     <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E31" s="1">
         <v>0</v>
@@ -1433,16 +1433,16 @@
     </row>
     <row r="32" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E32" s="1">
         <v>0</v>
@@ -1456,16 +1456,16 @@
     </row>
     <row r="33" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E33" s="1">
         <v>0</v>
@@ -1479,16 +1479,16 @@
     </row>
     <row r="34" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E34" s="1">
         <v>0</v>
@@ -1502,16 +1502,16 @@
     </row>
     <row r="35" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E35" s="1">
         <v>0</v>
@@ -1525,16 +1525,16 @@
     </row>
     <row r="36" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E36" s="1">
         <v>0</v>
@@ -1548,16 +1548,16 @@
     </row>
     <row r="37" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E37" s="1">
         <v>0</v>
@@ -1571,16 +1571,16 @@
     </row>
     <row r="38" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E38" s="1">
         <v>0</v>
@@ -1594,16 +1594,16 @@
     </row>
     <row r="39" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E39" s="1">
         <v>0</v>
@@ -1617,16 +1617,16 @@
     </row>
     <row r="40" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E40" s="1">
         <v>0</v>
@@ -1640,16 +1640,16 @@
     </row>
     <row r="41" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E41" s="1">
         <v>0</v>
@@ -1663,16 +1663,16 @@
     </row>
     <row r="42" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E42" s="1">
         <v>0</v>
@@ -1686,16 +1686,16 @@
     </row>
     <row r="43" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E43" s="1">
         <v>0</v>
